--- a/サンプルアプリケーション/images/work.xlsx
+++ b/サンプルアプリケーション/images/work.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成イメージ" sheetId="1" r:id="rId1"/>
+    <sheet name="利用イメージ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1944,6 +1945,1183 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82974</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="グループ化 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1781175"/>
+          <a:ext cx="10391775" cy="3616749"/>
+          <a:chOff x="1485900" y="1781175"/>
+          <a:chExt cx="10391775" cy="3616749"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1485900" y="2438400"/>
+            <a:ext cx="1724025" cy="1962150"/>
+            <a:chOff x="1390650" y="1295400"/>
+            <a:chExt cx="1724025" cy="1962150"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1" descr="パソコンを使う男性会社員のイラスト"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1400175" y="1295400"/>
+              <a:ext cx="1714500" cy="1714500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1390650" y="2857500"/>
+              <a:ext cx="1695450" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>マネージャ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="27" name="グループ化 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10163175" y="2524125"/>
+            <a:ext cx="1714500" cy="1981200"/>
+            <a:chOff x="10172700" y="1152525"/>
+            <a:chExt cx="1714500" cy="1981200"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="図 2" descr="パソコンを使う男性のイラスト"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="10172700" y="1152525"/>
+              <a:ext cx="1714500" cy="1714500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10172700" y="2733675"/>
+              <a:ext cx="1695450" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>メンバ</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="40" name="グループ化 39"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5781674" y="2562224"/>
+            <a:ext cx="1933575" cy="1771651"/>
+            <a:chOff x="5514974" y="2552699"/>
+            <a:chExt cx="1933575" cy="1771651"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3" descr="サーバーのイラスト（1台）"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="5857875" y="2552699"/>
+              <a:ext cx="1183148" cy="1400175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5514974" y="3924300"/>
+              <a:ext cx="1933575" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プロジェクト管理システム</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="グループ化 12"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="3276600" y="1781175"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3276600" y="1781175"/>
+              <a:ext cx="2609850" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>全プロジェクトの登録・更新・削除</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="グループ化 13"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="21173794">
+            <a:off x="3219450" y="2295525"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3276600" y="1781175"/>
+              <a:ext cx="2609850" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>顧客の登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="グループ化 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="20875244">
+            <a:off x="3209924" y="2800351"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3276600" y="1781175"/>
+              <a:ext cx="2609850" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プロジェクトの一括登録</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="23" name="グループ化 22"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="20363149">
+            <a:off x="3007845" y="3896205"/>
+            <a:ext cx="2896071" cy="720053"/>
+            <a:chOff x="3112549" y="1775497"/>
+            <a:chExt cx="2896071" cy="720053"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3112549" y="1775497"/>
+              <a:ext cx="2896071" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プロジェクトに従事するユーザの紐付け</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="グループ化 27"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="20595329">
+            <a:off x="3190875" y="3324225"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3276600" y="1781175"/>
+              <a:ext cx="2609850" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プロジェクトの検索・閲覧</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="グループ化 30"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="20710753">
+            <a:off x="7610475" y="3067050"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:headEnd type="arrow" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3276600" y="1781175"/>
+              <a:ext cx="2609850" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プロジェクトの検索・閲覧</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="20289439">
+            <a:off x="7524649" y="2383606"/>
+            <a:ext cx="2825033" cy="703376"/>
+            <a:chOff x="3209574" y="1792174"/>
+            <a:chExt cx="2825033" cy="703376"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:headEnd type="arrow" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3209574" y="1792174"/>
+              <a:ext cx="2825033" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>担当プロジェクトの更新・削除</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="37" name="グループ化 36"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="21124379">
+            <a:off x="7572375" y="3781425"/>
+            <a:ext cx="2825033" cy="703376"/>
+            <a:chOff x="3209574" y="1792174"/>
+            <a:chExt cx="2825033" cy="703376"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:headEnd type="arrow" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3209574" y="1792174"/>
+              <a:ext cx="2825033" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>担当プロジェクトの一覧確認</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="41" name="グループ化 40"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="19983549">
+            <a:off x="2476342" y="4599950"/>
+            <a:ext cx="3491645" cy="797974"/>
+            <a:chOff x="2527351" y="1697576"/>
+            <a:chExt cx="3491645" cy="797974"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="2527351" y="1697576"/>
+              <a:ext cx="3491645" cy="400050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>各ユーザが従事しているプロジェクト一覧の抽出</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2236,7 +3414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A32:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2253,4 +3431,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>